--- a/benchmark_results/matmul_graphs.xlsx
+++ b/benchmark_results/matmul_graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclln\Desktop\HPCA-Project-Code\benchmark_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C6353-0A78-43AE-992F-16D01119CCD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D8D625-A937-41B4-8409-2343C8145BAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1466,7 +1466,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Fixed matricies dimensions - 32 MPI Slots</a:t>
+              <a:t> Fixed matrices dimensions - 32 MPI Slots</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6691,7 +6691,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
